--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobiosmac/Desktop/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobiosmac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B9E27-1DBF-AF49-9B7E-85A3DF172CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D4175-E931-0B4C-AFA7-472F735A00E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28040" windowHeight="15520" xr2:uid="{A3913A72-DE35-6F47-811C-995F55A87FE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dados!$G$1:$G$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$G$1:$G$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="250">
   <si>
     <t>Egg Production of Annual Fish Austrolebias cyaneus and Cynopoecilus nigrovittatus Occurs Throughout Their Entire Life Cycle to Survive in a Temporary Wetland</t>
   </si>
@@ -523,9 +523,6 @@
     <t>topic</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -755,6 +752,42 @@
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>Morphological and genetic analysis of a rediscovered Clinostomum sp. parasitising Titanolebias monstrosus and Trigonectes aplocheiloides (Cyprinodontiformes: Rivulidae)</t>
+  </si>
+  <si>
+    <t>Yellow grub diseases on two seasonal killifish (Cyprinodontiformes, Rivulidae): a histopathological study</t>
+  </si>
+  <si>
+    <t>Morphofunctional analysis of the gastrointestinal tract of an annual killifish: In search of structural traits related to the annual life history</t>
+  </si>
+  <si>
+    <t>Validation of qPCR reference genes in the endangered annual killifish Austrolebias charrua considering different tissues, gender and environmental conditions</t>
+  </si>
+  <si>
+    <t>River drainage rearrangements and the phylogeographic pattern of the annual fish Austrolebias arachan (Cyprinodontiformes, Rivulidae)</t>
+  </si>
+  <si>
+    <t>Assessment of oxidative stress biomarkers in the threatened annual killifish Austrolebias charrua exposed to Roundup</t>
+  </si>
+  <si>
+    <t>Redescription of Austrolebias accorsii (Cyprinodontiformes: Rivulidae) and description of a new species of the genus from the upper Paraguay River basin</t>
+  </si>
+  <si>
+    <t>Austrolebais accorsi; Austrolebias ayoreode</t>
+  </si>
+  <si>
+    <t>Austrolebia arachan</t>
+  </si>
+  <si>
+    <t>environment_of_species_origin</t>
+  </si>
+  <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
+    <t>Trigonectes aplocheiloides; Titanolebias monstrosus</t>
   </si>
 </sst>
 </file>
@@ -847,13 +880,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27769E3-D029-4F4F-BB43-80328B0CBD90}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,36 +1243,32 @@
         <v>160</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>106</v>
@@ -1244,15 +1277,15 @@
         <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>104</v>
@@ -1260,12 +1293,10 @@
       <c r="D3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>106</v>
@@ -1274,30 +1305,26 @@
         <v>107</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>106</v>
@@ -1306,15 +1333,15 @@
         <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
@@ -1329,7 +1356,7 @@
         <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>106</v>
@@ -1338,54 +1365,58 @@
         <v>107</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="B7" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>106</v>
@@ -1394,30 +1425,26 @@
         <v>107</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="B8" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>106</v>
@@ -1426,12 +1453,12 @@
         <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
@@ -1443,13 +1470,13 @@
         <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>106</v>
@@ -1458,54 +1485,60 @@
         <v>107</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>106</v>
@@ -1514,92 +1547,92 @@
         <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>178</v>
@@ -1607,38 +1640,42 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>104</v>
@@ -1647,13 +1684,13 @@
         <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>106</v>
@@ -1661,20 +1698,22 @@
       <c r="I16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1685,31 +1724,27 @@
         <v>106</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
         <v>105</v>
       </c>
@@ -1720,43 +1755,43 @@
         <v>107</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>104</v>
@@ -1765,13 +1800,13 @@
         <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>106</v>
@@ -1780,118 +1815,112 @@
         <v>107</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>106</v>
@@ -1900,58 +1929,58 @@
         <v>107</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>106</v>
@@ -1960,15 +1989,15 @@
         <v>107</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>104</v>
@@ -1979,9 +2008,11 @@
       <c r="E27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>106</v>
@@ -1989,14 +2020,16 @@
       <c r="I27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>104</v>
@@ -2005,11 +2038,13 @@
         <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>106</v>
@@ -2018,28 +2053,26 @@
         <v>107</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>106</v>
@@ -2048,21 +2081,21 @@
         <v>107</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2073,18 +2106,18 @@
         <v>106</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>104</v>
@@ -2099,7 +2132,7 @@
         <v>103</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>106</v>
@@ -2108,12 +2141,12 @@
         <v>107</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
@@ -2122,12 +2155,12 @@
         <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>106</v>
@@ -2136,12 +2169,12 @@
         <v>115</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
@@ -2159,7 +2192,7 @@
         <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>106</v>
@@ -2168,52 +2201,56 @@
         <v>107</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>106</v>
@@ -2222,15 +2259,15 @@
         <v>107</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>104</v>
@@ -2239,13 +2276,11 @@
         <v>101</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>106</v>
@@ -2254,47 +2289,43 @@
         <v>107</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>104</v>
@@ -2309,7 +2340,7 @@
         <v>103</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>106</v>
@@ -2318,134 +2349,144 @@
         <v>107</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>106</v>
@@ -2454,15 +2495,15 @@
         <v>107</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>104</v>
@@ -2471,13 +2512,13 @@
         <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>106</v>
@@ -2486,24 +2527,30 @@
         <v>107</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G45" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>106</v>
@@ -2511,17 +2558,23 @@
       <c r="I45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+        <v>2019</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -2531,24 +2584,24 @@
         <v>106</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1">
         <v>2018</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2562,12 +2615,12 @@
         <v>115</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1">
         <v>2018</v>
@@ -2581,7 +2634,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>106</v>
@@ -2590,110 +2643,104 @@
         <v>107</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1">
         <v>2018</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
@@ -2709,17 +2756,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
@@ -2729,61 +2772,57 @@
         <v>106</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="7">
-        <v>2017</v>
+      <c r="A54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2018</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>212</v>
+        <v>115</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>106</v>
@@ -2791,25 +2830,31 @@
       <c r="I55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>106</v>
@@ -2818,21 +2863,21 @@
         <v>107</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2843,18 +2888,18 @@
         <v>106</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B58" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>114</v>
@@ -2874,15 +2919,15 @@
         <v>115</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>104</v>
@@ -2890,12 +2935,8 @@
       <c r="D59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
         <v>108</v>
       </c>
@@ -2905,25 +2946,25 @@
       <c r="I59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B60" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>106</v>
@@ -2932,15 +2973,15 @@
         <v>107</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2016</v>
+      <c r="A61" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -2949,27 +2990,27 @@
         <v>101</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1">
         <v>2016</v>
@@ -2980,87 +3021,81 @@
       <c r="D62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" s="7">
-        <v>2017</v>
+      <c r="A63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2016</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J63" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>114</v>
@@ -3080,52 +3115,56 @@
         <v>115</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G66" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>106</v>
@@ -3134,15 +3173,15 @@
         <v>107</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>104</v>
@@ -3151,10 +3190,10 @@
         <v>101</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>105</v>
@@ -3166,43 +3205,45 @@
         <v>107</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G69" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2015</v>
+      <c r="A70" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>104</v>
@@ -3211,64 +3252,62 @@
         <v>101</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="9">
+      <c r="A71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="1">
         <v>2015</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>221</v>
+        <v>115</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3279,61 +3318,55 @@
         <v>106</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B74" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>106</v>
@@ -3342,15 +3375,15 @@
         <v>107</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>104</v>
@@ -3359,13 +3392,13 @@
         <v>101</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>106</v>
@@ -3374,96 +3407,100 @@
         <v>107</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G77" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="1">
-        <v>2014</v>
+      <c r="A78" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2015</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J78" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1">
         <v>2014</v>
@@ -3472,16 +3509,12 @@
         <v>104</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>106</v>
@@ -3490,54 +3523,58 @@
         <v>107</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B80" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G80" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B81" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>106</v>
@@ -3546,15 +3583,15 @@
         <v>107</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B82" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>104</v>
@@ -3563,39 +3600,45 @@
         <v>101</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J82" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B83" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G83" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>106</v>
@@ -3604,15 +3647,15 @@
         <v>107</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>114</v>
@@ -3623,7 +3666,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>106</v>
@@ -3631,44 +3674,40 @@
       <c r="I84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="9">
-        <v>2013</v>
+      <c r="A85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2014</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J85" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>104</v>
@@ -3677,13 +3716,13 @@
         <v>101</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>106</v>
@@ -3692,15 +3731,15 @@
         <v>107</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B87" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>114</v>
@@ -3711,7 +3750,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>106</v>
@@ -3720,57 +3759,61 @@
         <v>115</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B88" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B89" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>126</v>
@@ -3779,79 +3822,77 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B90" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="G92" s="1" t="s">
         <v>125</v>
       </c>
@@ -3861,25 +3902,29 @@
       <c r="I92" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J92" s="1"/>
+      <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="G93" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>106</v>
@@ -3888,71 +3933,71 @@
         <v>107</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>121</v>
@@ -3963,35 +4008,33 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B97" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>106</v>
@@ -4000,26 +4043,30 @@
         <v>115</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="9">
-        <v>2007</v>
+      <c r="A98" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2010</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G98" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>106</v>
@@ -4027,87 +4074,81 @@
       <c r="I98" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>213</v>
+      <c r="J98" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>234</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B100" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J100" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B101" s="1">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>106</v>
@@ -4116,15 +4157,15 @@
         <v>107</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B102" s="1">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>104</v>
@@ -4135,7 +4176,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>106</v>
@@ -4143,14 +4184,16 @@
       <c r="I102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J102" s="1"/>
+      <c r="J102" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="9">
-        <v>2004</v>
+      <c r="A103" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2007</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>121</v>
@@ -4161,50 +4204,52 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J103" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="1">
-        <v>2000</v>
+      <c r="A105" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2007</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>121</v>
@@ -4215,50 +4260,54 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J105" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" s="9">
-        <v>1999</v>
+      <c r="A106" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2006</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="G106" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>236</v>
+        <v>107</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -4266,40 +4315,40 @@
       <c r="D107" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="G107" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B108" s="1">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
       <c r="G108" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>106</v>
@@ -4308,41 +4357,232 @@
         <v>107</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B109" s="1">
-        <v>1981</v>
+        <v>2004</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" s="7">
+        <v>2004</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I109" s="1" t="s">
+      <c r="H111" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1981</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>229</v>
+      <c r="J116" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G109" xr:uid="{B27769E3-D029-4F4F-BB43-80328B0CBD90}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B109">
-    <sortCondition descending="1" ref="B1:B109"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B116">
+    <sortCondition descending="1" ref="B1:B116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
